--- a/RRL Data.xlsx
+++ b/RRL Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svbank-my.sharepoint.com/personal/cshen_svb_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cshen\OneDrive - Silicon Valley Bank\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{226C2E72-447C-4DE4-B0A9-C6E3B1E0A48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{DC193113-DCBA-4068-A4C7-C6ED736BB4A6}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{226C2E72-447C-4DE4-B0A9-C6E3B1E0A48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{97330F88-5053-46C6-AAEF-926EED0D1240}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="9408" xr2:uid="{1D698BCD-8DB9-4DC8-A62A-E4F15EA2C616}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1195,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4462AC6D-298F-45B9-B53C-436417151C4A}">
   <dimension ref="A1:AA159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="R30" workbookViewId="0">
+      <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4506,7 +4505,9 @@
       <c r="Z40" s="2">
         <v>235000000</v>
       </c>
-      <c r="AA40" s="1"/>
+      <c r="AA40" s="1">
+        <v>44135</v>
+      </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
@@ -7270,7 +7271,9 @@
       <c r="Z73" s="2">
         <v>260000000</v>
       </c>
-      <c r="AA73" s="1"/>
+      <c r="AA73" s="1">
+        <v>44286</v>
+      </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -14691,6 +14694,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100867FECD52C40544BBD0A229C3F745258" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a84652f61fe64320e98e43eaafae0c18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="627f941b-6d42-453b-a34e-f3f7365aceca" xmlns:ns4="64567883-f00d-4018-99a7-370e890e4690" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5cba7fa310d174f41c5724e9a0a817f" ns3:_="" ns4:_="">
     <xsd:import namespace="627f941b-6d42-453b-a34e-f3f7365aceca"/>
@@ -14907,12 +14916,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1AFFF6C4-BEE6-4D45-BAFB-15C90B92FE56}">
   <ds:schemaRefs>
@@ -14922,6 +14925,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA23C3D3-178D-443A-83C8-3698F8C20BB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="627f941b-6d42-453b-a34e-f3f7365aceca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64567883-f00d-4018-99a7-370e890e4690"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3239A1A5-FE47-42AD-8CB5-29CDD7BC962D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14938,21 +14958,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA23C3D3-178D-443A-83C8-3698F8C20BB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64567883-f00d-4018-99a7-370e890e4690"/>
-    <ds:schemaRef ds:uri="627f941b-6d42-453b-a34e-f3f7365aceca"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>